--- a/Usefull commands.xlsx
+++ b/Usefull commands.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Description</t>
   </si>
@@ -40,6 +40,30 @@
   </si>
   <si>
     <t xml:space="preserve">a=$1 </t>
+  </si>
+  <si>
+    <t>Multiple line comment</t>
+  </si>
+  <si>
+    <t>for loop syntax</t>
+  </si>
+  <si>
+    <t>&lt;&lt; mycom ""jbjkk"" mycom</t>
+  </si>
+  <si>
+    <t>for each in $(seq 1 10)
+do
+echo "Welcome to shell scripting"
+done</t>
+  </si>
+  <si>
+    <t>Sequence comand</t>
+  </si>
+  <si>
+    <t>seq startnum step endnum</t>
+  </si>
+  <si>
+    <t>select loop</t>
   </si>
 </sst>
 </file>
@@ -89,12 +113,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -433,6 +460,35 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="57.6">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
